--- a/breeding_patterns - win, sum/litters (delivery times)/Dam_Sire_Combinations_LL.xlsx
+++ b/breeding_patterns - win, sum/litters (delivery times)/Dam_Sire_Combinations_LL.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">BirthMonth</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024</t>
   </si>
 </sst>
 </file>
@@ -572,9 +569,6 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -688,9 +682,6 @@
       <c r="AK2" t="n">
         <v>1</v>
       </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -804,9 +795,6 @@
       <c r="AK3" t="n">
         <v>1</v>
       </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -920,9 +908,6 @@
       <c r="AK4" t="n">
         <v>5</v>
       </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1036,9 +1021,6 @@
       <c r="AK5" t="n">
         <v>7</v>
       </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1152,9 +1134,6 @@
       <c r="AK6" t="n">
         <v>8</v>
       </c>
-      <c r="AL6" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1268,9 +1247,6 @@
       <c r="AK7" t="n">
         <v>7</v>
       </c>
-      <c r="AL7" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1384,9 +1360,6 @@
       <c r="AK8" t="n">
         <v>7</v>
       </c>
-      <c r="AL8" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1498,9 +1471,6 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1616,9 +1586,6 @@
       <c r="AK10" t="n">
         <v>3</v>
       </c>
-      <c r="AL10" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1732,9 +1699,6 @@
       <c r="AK11" t="n">
         <v>2</v>
       </c>
-      <c r="AL11" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1848,9 +1812,6 @@
       <c r="AK12" t="n">
         <v>1</v>
       </c>
-      <c r="AL12" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1963,9 +1924,6 @@
       </c>
       <c r="AK13" t="n">
         <v>1</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2091,9 +2049,6 @@
       <c r="AJ1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -2204,9 +2159,6 @@
       <c r="AJ2" t="n">
         <v>6</v>
       </c>
-      <c r="AK2" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2317,9 +2269,6 @@
       <c r="AJ3" t="n">
         <v>2</v>
       </c>
-      <c r="AK3" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -2430,9 +2379,6 @@
       <c r="AJ4" t="n">
         <v>4</v>
       </c>
-      <c r="AK4" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -2543,9 +2489,6 @@
       <c r="AJ5" t="n">
         <v>5</v>
       </c>
-      <c r="AK5" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -2656,9 +2599,6 @@
       <c r="AJ6" t="n">
         <v>3</v>
       </c>
-      <c r="AK6" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2769,9 +2709,6 @@
       <c r="AJ7" t="n">
         <v>3</v>
       </c>
-      <c r="AK7" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2882,9 +2819,6 @@
       <c r="AJ8" t="n">
         <v>3</v>
       </c>
-      <c r="AK8" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2994,9 +2928,6 @@
       </c>
       <c r="AJ9" t="n">
         <v>9</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -3108,9 +3039,6 @@
       <c r="AJ10" t="n">
         <v>6</v>
       </c>
-      <c r="AK10" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -3221,9 +3149,6 @@
       <c r="AJ11" t="n">
         <v>5</v>
       </c>
-      <c r="AK11" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3334,9 +3259,6 @@
       <c r="AJ12" t="n">
         <v>7</v>
       </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3446,9 +3368,6 @@
       </c>
       <c r="AJ13" t="n">
         <v>7</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3559,9 +3478,6 @@
       <c r="AE1" t="s">
         <v>36</v>
       </c>
-      <c r="AF1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -3657,9 +3573,6 @@
       <c r="AE2" t="n">
         <v>3</v>
       </c>
-      <c r="AF2" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -3755,9 +3668,6 @@
       <c r="AE3" t="n">
         <v>4</v>
       </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3853,9 +3763,6 @@
       <c r="AE4" t="n">
         <v>3</v>
       </c>
-      <c r="AF4" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -3951,9 +3858,6 @@
       <c r="AE5" t="n">
         <v>1</v>
       </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4049,9 +3953,6 @@
       <c r="AE6" t="n">
         <v>2</v>
       </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -4147,9 +4048,6 @@
       <c r="AE7" t="n">
         <v>2</v>
       </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -4245,9 +4143,6 @@
       <c r="AE8" t="n">
         <v>3</v>
       </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -4342,9 +4237,6 @@
       </c>
       <c r="AE9" t="n">
         <v>5</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -4441,9 +4333,6 @@
       <c r="AE10" t="n">
         <v>2</v>
       </c>
-      <c r="AF10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -4539,9 +4428,6 @@
       <c r="AE11" t="n">
         <v>6</v>
       </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -4637,9 +4523,6 @@
       <c r="AE12" t="n">
         <v>4</v>
       </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -4734,9 +4617,6 @@
       </c>
       <c r="AE13" t="n">
         <v>3</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4859,9 +4739,6 @@
       <c r="AI1" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -4969,9 +4846,6 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -5079,9 +4953,6 @@
       <c r="AI3" t="n">
         <v>1</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -5189,9 +5060,6 @@
       <c r="AI4" t="n">
         <v>5</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -5299,9 +5167,6 @@
       <c r="AI5" t="n">
         <v>5</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -5409,9 +5274,6 @@
       <c r="AI6" t="n">
         <v>3</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5519,9 +5381,6 @@
       <c r="AI7" t="n">
         <v>3</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -5629,9 +5488,6 @@
       <c r="AI8" t="n">
         <v>4</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -5738,9 +5594,6 @@
       </c>
       <c r="AI9" t="n">
         <v>6</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -5849,9 +5702,6 @@
       <c r="AI10" t="n">
         <v>3</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -5959,9 +5809,6 @@
       <c r="AI11" t="n">
         <v>5</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -6069,9 +5916,6 @@
       <c r="AI12" t="n">
         <v>8</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -6178,9 +6022,6 @@
       </c>
       <c r="AI13" t="n">
         <v>4</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
